--- a/ViewERP/WebView/files/reportesemanal/EDGAR RAUL BAÑUELOS DIAZ/reporte_45.xlsx
+++ b/ViewERP/WebView/files/reportesemanal/EDGAR RAUL BAÑUELOS DIAZ/reporte_45.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="11">
   <x:si>
     <x:t>Reporte de Stock Semanal : LIONS INTERNATIONAL</x:t>
   </x:si>
@@ -177,13 +177,10 @@
     <x:t xml:space="preserve">EDGAR RAUL BAÑUELOS DIAZ  </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">VENUS #124 </x:t>
+    <x:t>Telefono</x:t>
   </x:si>
   <x:si>
-    <x:t>4491648540</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11/2/2020 a 11/8/2020</x:t>
+    <x:t>02/11/2020 a 08/11/2020</x:t>
   </x:si>
   <x:si>
     <x:t>rbanuelosdiaz@gmail.com</x:t>
@@ -192,31 +189,19 @@
     <x:t>BANAMEX</x:t>
   </x:si>
   <x:si>
-    <x:t>SANTANDER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FOCO LED2</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">BODEGA ARTURO RUELAS(155) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">BODEGA ALAN DURAN(6) BODEGA ARTURO RUELAS(62) </x:t>
-  </x:si>
-  <x:si>
     <x:t>LAMPARA LED</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">BODEGA ARTURO RUELAS(100) </x:t>
+    <x:t xml:space="preserve">BODEGA CAROLINA RAMIREZ(150) </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">BODEGA ARTURO RUELAS(4) BODEGA CESAR GUERRERO(10) </x:t>
+    <x:t xml:space="preserve">BODEGA IMELDA DIAZ(15) </x:t>
   </x:si>
   <x:si>
-    <x:t>BARRAS</x:t>
+    <x:t>FOCO LED</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">BODEGA ARTURO RUELAS(35) BODEGA CESAR GUERRERO(150) </x:t>
+    <x:t xml:space="preserve">BODEGA ORIGEN 1(10) </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2318,7 +2303,7 @@
       <x:c r="G5" s="159"/>
       <x:c r="H5" s="160"/>
       <x:c r="I5" s="163" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J5" s="164"/>
       <x:c r="K5" s="97"/>
@@ -2351,14 +2336,14 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F7" s="165" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G7" s="130"/>
       <x:c r="H7" s="162"/>
       <x:c r="I7" s="155"/>
       <x:c r="J7" s="130"/>
       <x:c r="K7" s="134" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="L7" s="135"/>
       <x:c r="M7" s="136"/>
@@ -2412,7 +2397,7 @@
       </x:c>
       <x:c r="G10" s="130"/>
       <x:c r="H10" s="154" t="s">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I10" s="155"/>
       <x:c r="J10" s="155"/>
@@ -2549,33 +2534,33 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B17" s="67" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C17" s="68">
+        <x:v>750</x:v>
+      </x:c>
+      <x:c r="D17" s="68">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E17" s="57" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F17" s="68">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G17" s="57" t="s">
         <x:v>53</x:v>
-      </x:c>
-      <x:c r="C17" s="68">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="D17" s="68">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="E17" s="57" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F17" s="68">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="G17" s="57" t="s">
-        <x:v>55</x:v>
       </x:c>
       <x:c r="H17" s="66"/>
       <x:c r="I17" s="69">
-        <x:v>0</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="J17" s="68">
         <x:f>IF((C17+D17-(F17+I17))&lt;0,"F. inventario",(C17+D17-(F17+I17)))</x:f>
         <x:v>0</x:v>
       </x:c>
       <x:c r="K17" s="70">
-        <x:v>4</x:v>
+        <x:v>10.5</x:v>
       </x:c>
       <x:c r="L17" s="71">
         <x:f>(K17*J17)</x:f>
@@ -2603,32 +2588,30 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B18" s="67" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C18" s="53">
         <x:v>1500</x:v>
       </x:c>
       <x:c r="D18" s="53">
-        <x:v>100</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E18" s="57" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F18" s="53">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G18" s="57" t="s">
-        <x:v>58</x:v>
-      </x:c>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G18" s="57"/>
       <x:c r="H18" s="48"/>
       <x:c r="I18" s="56">
-        <x:v>0</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J18" s="53">
         <x:f t="shared" ref="J18:J27" si="0">IF((C18+D18-(F18+I18))&lt;0,"F. inventario",(C18+D18-(F18+I18)))</x:f>
       </x:c>
       <x:c r="K18" s="49">
-        <x:v>10.2</x:v>
+        <x:v>15.5</x:v>
       </x:c>
       <x:c r="L18" s="71">
         <x:f t="shared" ref="L18:L28" si="1">(K18*J18)</x:f>
@@ -2651,24 +2634,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B19" s="67" t="s">
-        <x:v>59</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C19" s="53">
-        <x:v>300</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="D19" s="53">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="E19" s="57" t="s">
-        <x:v>60</x:v>
-      </x:c>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E19" s="57"/>
       <x:c r="F19" s="53">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G19" s="57"/>
       <x:c r="H19" s="48"/>
       <x:c r="I19" s="56">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J19" s="53">
         <x:f t="shared" si="0"/>
@@ -3166,7 +3147,7 @@
         <x:v>44141</x:v>
       </x:c>
       <x:c r="B32" s="20" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C32" s="27">
         <x:v>10500</x:v>
@@ -3197,15 +3178,9 @@
       </x:c>
     </x:row>
     <x:row r="33">
-      <x:c r="A33" s="17">
-        <x:v>44139</x:v>
-      </x:c>
-      <x:c r="B33" s="20" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C33" s="27">
-        <x:v>5000</x:v>
-      </x:c>
+      <x:c r="A33" s="17"/>
+      <x:c r="B33" s="20"/>
+      <x:c r="C33" s="27"/>
       <x:c r="D33" s="106"/>
       <x:c r="E33" s="99"/>
       <x:c r="F33" s="21"/>
